--- a/Docs/PLANILHA REQUISITOS ESTUFA - MUSHROOM.xlsx
+++ b/Docs/PLANILHA REQUISITOS ESTUFA - MUSHROOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cleitom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cleitom\Desktop\grow7\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E0ADDB8-8B23-440E-90E0-B3BC515ACBDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEC1F7E-469C-44DE-B283-085AC21C30DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1E387DD-1A76-4D38-8F84-A050BC6E2376}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="71">
   <si>
     <t>FUNCIONAL</t>
   </si>
@@ -65,6 +65,186 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>RNF010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -ESTUFA CONTER VENTILADORES E PURIFICADORES DE AR </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - ARDUINO DEVE CONTER PROGRAMÇAÕ QUE INTERLIGA OS SENSORES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - PROTÓTIPO DEVE INTERLIGAR OS SENSORES AO SITE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - PARA O FUNCIONAMENTO O SITE DEVE ESTAR CONECTADO AO AZURE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - PROGRAMAÇÃO EM ARDUINO </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - ESTUFA  CONTER SENSORES DE TEMPERATURA,UMIDADE(AR,SOLO) E QUALIDADE DO AR</t>
+    </r>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DATA_ENTREGA</t>
+  </si>
+  <si>
+    <t>FINALIZADO</t>
+  </si>
+  <si>
+    <t>PENDENTE</t>
+  </si>
+  <si>
+    <t>ANDAMENTO</t>
+  </si>
+  <si>
+    <t>00/00/0000</t>
+  </si>
+  <si>
+    <t>00/00/0001</t>
+  </si>
+  <si>
+    <t>00/00/0002</t>
+  </si>
+  <si>
+    <t>00/00/0003</t>
+  </si>
+  <si>
+    <t>00/00/0004</t>
+  </si>
+  <si>
+    <t>00/00/0005</t>
+  </si>
+  <si>
+    <t>00/00/0006</t>
+  </si>
+  <si>
+    <t>00/00/0007</t>
+  </si>
+  <si>
+    <t>00/00/0008</t>
+  </si>
+  <si>
+    <t>00/00/0009</t>
+  </si>
+  <si>
+    <t>00/00/0010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>RNF01</t>
     </r>
     <r>
@@ -75,7 +255,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - ESTUFA DEVE SER DESENVOLVIDA A PARTIR DE UM PROTÓTIPO</t>
+      <t xml:space="preserve"> - O MATERIAL DA ESTUFA DEVE SER IMPERMEÁVEL</t>
     </r>
   </si>
   <si>
@@ -97,7 +277,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -NO PROTÓTIPO DEVE CONTER OS MATERIAIS</t>
+      <t xml:space="preserve"> - NÃO PODE ENTRAR LUZ DENTRO DA ESTUFA</t>
     </r>
   </si>
   <si>
@@ -119,7 +299,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -ESTUFA DEVE CONTER UM ARDUINO </t>
+      <t xml:space="preserve"> - O MATERIAL INTERNO DA ESTUFA DEVE MANTER A TEMPERATURA SEM OSCILAÇÕES</t>
     </r>
   </si>
   <si>
@@ -141,7 +321,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -NO ARDUINO DEVE CONTER OS SENSORES CONECTADOS Á ESTUFA</t>
+      <t xml:space="preserve"> - O FORMATO DA ESTUFA DEVE SER UM PRISMA</t>
     </r>
   </si>
   <si>
@@ -163,7 +343,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -FAZ-SE NECESSÁRIO A CRIÇÃO DO BANCO DE DADOS NO AZURE</t>
+      <t xml:space="preserve"> - A ESTUFA DEVE TER UM ESPAÇO PARA A VISUALIZAÇÃO INTERNA</t>
     </r>
   </si>
   <si>
@@ -185,7 +365,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -ESTUFA CONTER PERSONALIZAÇÃO</t>
+      <t xml:space="preserve"> - A ESTUFA DEVE SER VEDADA POR COMPLETO </t>
     </r>
   </si>
   <si>
@@ -207,7 +387,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -ESTUFA CONTER PLATAFORMA DE CULTIVO DE COGUMELO EM BANDEJA</t>
+      <t xml:space="preserve"> - A ESTUFA DEVE TER UMA ABERTURA </t>
     </r>
   </si>
   <si>
@@ -232,7 +412,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -ESTUFA TER CONEXÃO COM A INTERNET </t>
+      <t xml:space="preserve"> - A BASE DA ESTUFA DEVE SER ANTIDERRAPANTE</t>
     </r>
   </si>
   <si>
@@ -254,29 +434,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -ESTUFA DIMINUIR O CHEIRO DO FUNGOS NO AMBIENTE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RNF010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -ESTUFA CONTER VENTILADORES E PURIFICADORES DE AR </t>
+      <t xml:space="preserve"> - DENTRO DA ESTUFA DEVE HAVER O SENSOR DE TEMPERATURA</t>
     </r>
   </si>
   <si>
@@ -298,166 +456,329 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -ESTUFA POSSUIR LOGO DO PROJETO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RF01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - ARDUINO DEVE CONTER PROGRAMÇAÕ QUE INTERLIGA OS SENSORES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RF02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - PROTÓTIPO DEVE INTERLIGAR OS SENSORES AO SITE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RF03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - PARA O FUNCIONAMENTO O SITE DEVE ESTAR CONECTADO AO AZURE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RF04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - PROGRAMAÇÃO EM ARDUINO </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RF05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - ESTUFA  CONTER SENSORES DE TEMPERATURA,UMIDADE(AR,SOLO) E QUALIDADE DO AR</t>
-    </r>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>DATA_ENTREGA</t>
-  </si>
-  <si>
-    <t>FINALIZADO</t>
-  </si>
-  <si>
-    <t>PENDENTE</t>
-  </si>
-  <si>
-    <t>ANDAMENTO</t>
-  </si>
-  <si>
-    <t>00/00/0000</t>
-  </si>
-  <si>
-    <t>00/00/0001</t>
-  </si>
-  <si>
-    <t>00/00/0002</t>
-  </si>
-  <si>
-    <t>00/00/0003</t>
-  </si>
-  <si>
-    <t>00/00/0004</t>
-  </si>
-  <si>
-    <t>00/00/0005</t>
-  </si>
-  <si>
-    <t>00/00/0006</t>
-  </si>
-  <si>
-    <t>00/00/0007</t>
-  </si>
-  <si>
-    <t>00/00/0008</t>
-  </si>
-  <si>
-    <t>00/00/0009</t>
-  </si>
-  <si>
-    <t>00/00/0010</t>
+      <t xml:space="preserve"> -DENTRO DA ESTUFA DEVE HAVER O SENSOR DE UMIDADE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNF12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DENTRO DA ESTUFA DEVE HAVER O SENSOR DE UMIDADE DO SOLO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNF13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DENTRO DA ESTUFA DEVE HAVER O SENSOR DE QUALIDADE DO AR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNF14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - A ESTUFA DEVE CONTER VENTILAÇÃO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNF15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - A ESTUFA DEVE CONTER FILTRO DE AR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNF16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - A ESTUFA DEVE CONTER UM SISTEMA DE REFRIGERAÇÃO EFICAZ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNF17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - A ESTUFA DEVE CONTER UM RESERVATÓRIO DE AGUA E GELO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNF18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - OS SENSORES DEVEM ESTAR INSTALADOS DENTRO DA ESTUFA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNF19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - OS SENSORES DEVEM ESTAR CONECTADOS AO ARDUINO</t>
+    </r>
+  </si>
+  <si>
+    <t>00/00/0011</t>
+  </si>
+  <si>
+    <t>00/00/0012</t>
+  </si>
+  <si>
+    <t>00/00/0013</t>
+  </si>
+  <si>
+    <t>00/00/0014</t>
+  </si>
+  <si>
+    <t>00/00/0015</t>
+  </si>
+  <si>
+    <t>00/00/0016</t>
+  </si>
+  <si>
+    <t>00/00/0017</t>
+  </si>
+  <si>
+    <t>00/00/0018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNF09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DEVE HAVER UM MODELO CONCEITUAL DO BANCO DE DADOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNF09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DEVE HAVER A TABELA CULTIVO </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNF09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DEVE HAVER A TABELA SENSOR </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RNF09</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DEVE HAVER A TABELA CLIENTE</t>
+    </r>
+  </si>
+  <si>
+    <t>00/00/0019</t>
+  </si>
+  <si>
+    <t>00/00/0020</t>
+  </si>
+  <si>
+    <t>00/00/0021</t>
+  </si>
+  <si>
+    <t>00/00/0022</t>
+  </si>
+  <si>
+    <t>ATIVIDADES</t>
+  </si>
+  <si>
+    <t>DEFINIR O MATERIAL</t>
+  </si>
+  <si>
+    <t>CONSTRUIR A ESTUFA</t>
+  </si>
+  <si>
+    <t>ESCOLHER OS PERIFÉRICOS</t>
+  </si>
+  <si>
+    <t>INSTALAR OS PERIFÉRICOS</t>
+  </si>
+  <si>
+    <t>CRIAR BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>ATIVIDADE</t>
   </si>
 </sst>
 </file>
@@ -506,7 +827,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -514,69 +835,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -588,6 +899,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -630,90 +948,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1027,25 +1261,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6142F668-E0E6-42F3-95E9-DDED6C21055D}">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="83.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="82" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="86.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
     <col min="23" max="23" width="4.28515625" customWidth="1"/>
     <col min="24" max="24" width="17.28515625" customWidth="1"/>
     <col min="25" max="25" width="17.42578125" customWidth="1"/>
@@ -1054,37 +1290,43 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="X1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Y1" t="s">
         <v>0</v>
@@ -1094,38 +1336,39 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
       </c>
       <c r="X2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="s">
         <v>1</v>
@@ -1135,283 +1378,522 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
       </c>
       <c r="X3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="E22" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D50">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="ANDAMENTO">
+  <mergeCells count="1">
+    <mergeCell ref="A19:A20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D25:D50 E2:E24">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="ANDAMENTO">
       <formula>NOT(ISERROR(SEARCH("ANDAMENTO",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="PENDENTE">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="PENDENTE">
       <formula>NOT(ISERROR(SEARCH("PENDENTE",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="FINALIZADO">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="FINALIZADO">
       <formula>NOT(ISERROR(SEARCH("FINALIZADO",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J12">
-    <cfRule type="containsText" dxfId="11" priority="4" stopIfTrue="1" operator="containsText" text="ANDAMENTO">
+  <conditionalFormatting sqref="J7:J12 L2:L6">
+    <cfRule type="containsText" dxfId="5" priority="4" stopIfTrue="1" operator="containsText" text="ANDAMENTO">
       <formula>NOT(ISERROR(SEARCH("ANDAMENTO",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" stopIfTrue="1" operator="containsText" text="PENDENTE">
+    <cfRule type="containsText" dxfId="4" priority="5" stopIfTrue="1" operator="containsText" text="PENDENTE">
       <formula>NOT(ISERROR(SEARCH("PENDENTE",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" stopIfTrue="1" operator="containsText" text="FINALIZADO">
+    <cfRule type="containsText" dxfId="3" priority="6" stopIfTrue="1" operator="containsText" text="FINALIZADO">
       <formula>NOT(ISERROR(SEARCH("FINALIZADO",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J50">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="PENDENTE">
-      <formula>NOT(ISERROR(SEARCH("PENDENTE",J13)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="FINALIZADO">
+      <formula>NOT(ISERROR(SEARCH("FINALIZADO",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="ANDAMENTO">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="ANDAMENTO">
       <formula>NOT(ISERROR(SEARCH("ANDAMENTO",J13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="FINALIZADO">
-      <formula>NOT(ISERROR(SEARCH("FINALIZADO",J13)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="PENDENTE">
+      <formula>NOT(ISERROR(SEARCH("PENDENTE",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B50 B2:B12 H2:H50" xr:uid="{347702AD-74D2-441E-84C5-23369647CD7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6 H7:H50 C2:C24 B25:B50" xr:uid="{347702AD-74D2-441E-84C5-23369647CD7F}">
       <formula1>$Y$1:$Y$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C50 C2:C12 I2:I50" xr:uid="{9780C3E8-765D-41C0-A0BA-25372987C64D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K6 I7:I50 D2:D24 C25:C50" xr:uid="{9780C3E8-765D-41C0-A0BA-25372987C64D}">
       <formula1>$Z$1:$Z$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D50 J2:J50" xr:uid="{A91FE1C3-ECD4-4B24-8DC3-A1A28F6CACAD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6 J7:J50 E2:E24 D25:D50" xr:uid="{A91FE1C3-ECD4-4B24-8DC3-A1A28F6CACAD}">
       <formula1>$X$1:$X$3</formula1>
     </dataValidation>
   </dataValidations>
